--- a/biology/Botanique/Union_nationale_des_producteurs_de_pommes_de_terre/Union_nationale_des_producteurs_de_pommes_de_terre.xlsx
+++ b/biology/Botanique/Union_nationale_des_producteurs_de_pommes_de_terre/Union_nationale_des_producteurs_de_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union nationale des producteurs de pommes de terre (UNPT) est une des associations spécialisées de la FNSEA visant à représenter les planteurs de pomme de terre présents en France. L'Union est le principal syndicat représentant la profession. Elle est affiliée au Comité des organisations professionnelles agricoles de l'Union européenne (COPA).
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UNPT est créée en janvier 2002 par la réunion de la Fédération nationale des producteurs de pommes de terre de consommation (FNPTC) et de la Fédération nationale des producteurs de pommes de terre d'industrie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UNPT est créée en janvier 2002 par la réunion de la Fédération nationale des producteurs de pommes de terre de consommation (FNPTC) et de la Fédération nationale des producteurs de pommes de terre d'industrie.
 </t>
         </is>
       </c>
